--- a/clcore_ig/output/StructureDefinition-DocumentoCl.xlsx
+++ b/clcore_ig/output/StructureDefinition-DocumentoCl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="424">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:15:51-03:00</t>
+    <t>2024-09-26T12:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -624,14 +624,14 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
-    <t>Paciente sobre el cual se ha generado este documento. Este debe ser basado en el perfil del paciente Chileno.</t>
-  </si>
-  <si>
-    <t>Paciente sobre el cual se ha generado este documento. Este debe ser basado en el perfil de paciente Chileno.</t>
+    <t>Recurso sobre el cual se ha generado este documento. Es deseable que el recurso cumpla con un perfil Chileno.</t>
+  </si>
+  <si>
+    <t>Recurso sobre el cual se ha generado este documento.</t>
   </si>
   <si>
     <t>For clinical documents, this is usually the patient.</t>
@@ -699,7 +699,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -720,7 +720,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl|Device|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl|Device|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl)
 </t>
   </si>
   <si>
@@ -902,7 +902,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl|RelatedPerson|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl)
 </t>
   </si>
   <si>
@@ -924,7 +924,7 @@
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl)
 </t>
   </si>
   <si>
@@ -1099,10 +1099,6 @@
   </si>
   <si>
     <t>Composition.event.detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
   </si>
   <si>
     <t>The event(s) being documented</t>
@@ -6426,13 +6422,13 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6501,7 +6497,7 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>169</v>
@@ -6515,10 +6511,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6544,10 +6540,10 @@
         <v>253</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6598,7 +6594,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6610,16 +6606,16 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6630,10 +6626,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6745,10 +6741,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6862,10 +6858,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6981,14 +6977,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7010,16 +7006,16 @@
         <v>237</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7068,7 +7064,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7100,10 +7096,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7129,16 +7125,16 @@
         <v>173</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7167,7 +7163,7 @@
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7185,7 +7181,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7217,10 +7213,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7243,13 +7239,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7302,7 +7298,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7334,10 +7330,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7360,16 +7356,16 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>351</v>
+        <v>196</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7419,7 +7415,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7440,7 +7436,7 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7451,10 +7447,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7480,13 +7476,13 @@
         <v>122</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7536,7 +7532,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7545,7 +7541,7 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>104</v>
@@ -7554,10 +7550,10 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7568,10 +7564,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7597,16 +7593,16 @@
         <v>112</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7634,11 +7630,11 @@
         <v>164</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7655,7 +7651,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7673,7 +7669,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>169</v>
@@ -7687,10 +7683,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7716,16 +7712,16 @@
         <v>173</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7753,11 +7749,11 @@
         <v>116</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7774,7 +7770,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7792,7 +7788,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>169</v>
@@ -7806,10 +7802,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7832,16 +7828,16 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>351</v>
+        <v>196</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7891,7 +7887,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7900,7 +7896,7 @@
         <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>104</v>
@@ -7909,10 +7905,10 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -7923,10 +7919,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7952,16 +7948,16 @@
         <v>173</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -7989,11 +7985,11 @@
         <v>116</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8010,7 +8006,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8019,7 +8015,7 @@
         <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>104</v>
@@ -8028,7 +8024,7 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>169</v>
@@ -8042,10 +8038,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8071,13 +8067,13 @@
         <v>82</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8127,7 +8123,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8136,7 +8132,7 @@
         <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>104</v>
@@ -8145,10 +8141,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
